--- a/csv_files/filter5_stability_availability_rot_constants_quadrupole.xlsx
+++ b/csv_files/filter5_stability_availability_rot_constants_quadrupole.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirela_en\Desktop\python\molecule_filter_TOC\no_symmetry_restriction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirela_en\Desktop\python\molecule_filter_TOC\no_symmetry_restriction\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A476A-64C3-4BAD-A3FD-CFDACD90EFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B7B4E-5FF7-40D0-9F6F-5E38D58CC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BDEA7AA2-7E0F-412F-8C03-AEA084F104C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{BDEA7AA2-7E0F-412F-8C03-AEA084F104C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Only rot constants" sheetId="2" r:id="rId2"/>
+    <sheet name="Only passing rot constants" sheetId="3" r:id="rId3"/>
+    <sheet name="Only passing ALL rot constants" sheetId="4" r:id="rId4"/>
+    <sheet name="No water reaction" sheetId="5" r:id="rId5"/>
+    <sheet name="No unconvenient molecules" sheetId="6" r:id="rId6"/>
+    <sheet name="Fast_glance_5_10_atoms" sheetId="7" r:id="rId7"/>
+    <sheet name="fast_glance" sheetId="8" r:id="rId8"/>
+    <sheet name="fast_glance_no_solid" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="151">
   <si>
     <t>Methane, bromodichloro-</t>
   </si>
@@ -338,15 +346,6 @@
     <t>SiH2Cl2</t>
   </si>
   <si>
-    <t>difluorosilane</t>
-  </si>
-  <si>
-    <t>SiH2F2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Trichlorosilane</t>
   </si>
   <si>
@@ -365,12 +364,6 @@
     <t>H2Se</t>
   </si>
   <si>
-    <t>chlorocyanogen</t>
-  </si>
-  <si>
-    <t>ClCN</t>
-  </si>
-  <si>
     <t>Phosphine</t>
   </si>
   <si>
@@ -444,13 +437,73 @@
   </si>
   <si>
     <t>Toxicity</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Dipole</t>
+  </si>
+  <si>
+    <t>Rot A</t>
+  </si>
+  <si>
+    <t>Rot B</t>
+  </si>
+  <si>
+    <t>Rot C</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Formamide</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Propanal</t>
+  </si>
+  <si>
+    <t>Acrylamide</t>
+  </si>
+  <si>
+    <t>methyl amine</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>sulfuric acid</t>
+  </si>
+  <si>
+    <t>Quadrupole</t>
+  </si>
+  <si>
+    <t>OCS</t>
+  </si>
+  <si>
+    <t>Carbonyl sulfide</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>A-C</t>
+  </si>
+  <si>
+    <t>B-C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +538,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD25C14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,8 +582,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -508,11 +603,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,12 +933,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD25C14"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -867,14 +1335,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F2760D-80B5-43A3-9DD6-D35B8F546841}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="37.28515625" customWidth="1"/>
@@ -886,7 +1356,7 @@
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" customWidth="1"/>
+    <col min="19" max="19" width="41.140625" customWidth="1"/>
     <col min="21" max="21" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,28 +1389,28 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -949,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -981,29 +1451,29 @@
         <v>1.26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2" s="4">
         <f>I2</f>
         <v>1.26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R2" s="4">
         <v>-1.931</v>
@@ -1045,7 +1515,7 @@
         <v>1.5</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K50" si="0">(I3+J3)/2</f>
+        <f t="shared" ref="K3:K48" si="0">(I3+J3)/2</f>
         <v>1.4695</v>
       </c>
       <c r="L3" s="7">
@@ -1175,22 +1645,22 @@
         <v>1.5325</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R5" s="2">
         <v>-2.9449999999999998</v>
@@ -1227,7 +1697,7 @@
         <v>2.2170000000000001</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K6" s="5">
         <f>I6</f>
@@ -1298,22 +1768,22 @@
         <v>1.4205000000000001</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R7" s="2">
         <v>3.89</v>
@@ -1474,29 +1944,29 @@
         <v>1.3180000000000001</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K10" s="4">
         <f>I10</f>
         <v>1.3180000000000001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R10" s="4">
         <v>-2.6869999999999998</v>
@@ -1533,7 +2003,7 @@
         <v>1.38</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ref="K11:K14" si="5">I11</f>
@@ -1595,7 +2065,7 @@
         <v>1.4139999999999999</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="5"/>
@@ -1657,30 +2127,30 @@
         <v>1.502</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="5"/>
         <v>1.502</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M13" s="4">
         <v>5.4489999999999998</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P13" s="4">
         <f>K13^2/M13</f>
         <v>0.41402165534960544</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R13" s="4">
         <v>3.5990000000000002</v>
@@ -1717,29 +2187,29 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="5"/>
         <v>2.2429999999999999</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R14" s="4">
         <v>1.7490000000000001</v>
@@ -1783,22 +2253,22 @@
         <v>1.9864999999999999</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R15" s="4">
         <v>-3.1339999999999999</v>
@@ -1835,29 +2305,29 @@
         <v>2.33</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K16" s="4">
         <f>I16</f>
         <v>2.33</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R16" s="4">
         <v>-3.9180000000000001</v>
@@ -2231,65 +2701,65 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>643</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>1258</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>4</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>6.9</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>1.353</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <v>1.04</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>1.1964999999999999</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="8">
         <v>0.11</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <v>0.11</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="8">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="8">
         <f>$K$23^2/L23</f>
         <v>13.014656818181816</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="8">
         <f t="shared" ref="P23:Q23" si="13">$K$23^2/M23</f>
         <v>13.014656818181816</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="8">
         <f t="shared" si="13"/>
         <v>24.264614406779657</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="8">
         <v>2.8119999999999998</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="8">
         <v>-63.5</v>
       </c>
       <c r="T23" s="3"/>
@@ -2328,22 +2798,22 @@
         <v>1.4115</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R24" s="2">
         <v>-1.0269999999999999</v>
@@ -2925,29 +3395,29 @@
         <v>1.484</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K34" s="4">
         <f>I34</f>
         <v>1.484</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R34" s="4">
         <v>1.577</v>
@@ -2958,63 +3428,63 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>3105</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>1449</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>131.1</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
         <v>1.9690000000000001</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="8">
         <v>2.1219999999999999</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="8">
         <f t="shared" si="0"/>
         <v>2.0455000000000001</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="8">
         <v>0.41499999999999998</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="8">
         <v>0.105</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="8">
         <f>$K$35/L35</f>
         <v>4.9289156626506028</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="8">
         <f t="shared" ref="P35:Q35" si="22">$K$35/M35</f>
         <v>14.507092198581562</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="8">
         <f t="shared" si="22"/>
         <v>19.480952380952381</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="8">
         <v>5.4450000000000003</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="8">
         <v>-100.7</v>
       </c>
       <c r="T35" s="3"/>
@@ -3201,10 +3671,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>5819</v>
+        <v>5831</v>
       </c>
       <c r="B39" s="7">
-        <v>2229</v>
+        <v>2259</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>100</v>
@@ -3213,68 +3683,66 @@
         <v>101</v>
       </c>
       <c r="E39" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G39" s="7">
-        <v>248.8</v>
-      </c>
-      <c r="H39" s="7">
-        <v>35.9</v>
-      </c>
+        <v>111.5</v>
+      </c>
+      <c r="H39" s="7"/>
       <c r="I39" s="7">
-        <v>1.708</v>
+        <v>1.363</v>
       </c>
       <c r="J39" s="7">
-        <v>1.54</v>
+        <v>0.86</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="0"/>
-        <v>1.6240000000000001</v>
+        <v>1.1114999999999999</v>
       </c>
       <c r="L39" s="7">
-        <v>0.82299999999999995</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="M39" s="7">
-        <v>0.26</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="N39" s="7">
-        <v>0.21199999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="O39" s="7">
         <f>$K$39^2/L39</f>
-        <v>3.2045880923450794</v>
+        <v>14.884725903614456</v>
       </c>
       <c r="P39" s="7">
         <f t="shared" ref="P39:Q39" si="25">$K$39^2/M39</f>
-        <v>10.143753846153846</v>
+        <v>14.884725903614456</v>
       </c>
       <c r="Q39" s="7">
         <f t="shared" si="25"/>
-        <v>12.440452830188681</v>
+        <v>24.708644999999997</v>
       </c>
       <c r="R39" s="7">
-        <v>1.625</v>
+        <v>4.008</v>
       </c>
       <c r="S39" s="7">
-        <v>-122</v>
+        <v>-126.6</v>
       </c>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>5831</v>
+        <v>5841</v>
       </c>
       <c r="B40" s="7">
-        <v>2259</v>
+        <v>2300</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E40" s="7">
         <v>1</v>
@@ -3283,302 +3751,302 @@
         <v>28</v>
       </c>
       <c r="G40" s="7">
-        <v>111.5</v>
-      </c>
-      <c r="H40" s="7"/>
+        <v>116.1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>67.7</v>
+      </c>
       <c r="I40" s="7">
-        <v>1.363</v>
+        <v>1.552</v>
       </c>
       <c r="J40" s="7">
-        <v>0.86</v>
+        <v>1.359</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="0"/>
-        <v>1.1114999999999999</v>
+        <v>1.4555</v>
       </c>
       <c r="L40" s="7">
-        <v>8.3000000000000004E-2</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="M40" s="7">
-        <v>8.3000000000000004E-2</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="N40" s="7">
-        <v>0.05</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="O40" s="7">
-        <f>$K$40^2/L40</f>
-        <v>14.884725903614456</v>
+        <f>$K$40/L40</f>
+        <v>6.0394190871369293</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" ref="P40:Q40" si="26">$K$40^2/M40</f>
-        <v>14.884725903614456</v>
+        <f t="shared" ref="P40:Q40" si="26">$K$40/M40</f>
+        <v>6.0394190871369293</v>
       </c>
       <c r="Q40" s="7">
         <f t="shared" si="26"/>
-        <v>24.708644999999997</v>
+        <v>10.547101449275361</v>
       </c>
       <c r="R40" s="7">
-        <v>4.008</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="S40" s="7">
-        <v>-126.6</v>
+        <v>-131</v>
       </c>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>5841</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2300</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="4">
+        <v>5854</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2321</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>1</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="7">
-        <v>116.1</v>
-      </c>
-      <c r="H41" s="7">
-        <v>67.7</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1.552</v>
-      </c>
-      <c r="J41" s="7">
-        <v>1.359</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="G41" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
-        <v>1.4555</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="O41" s="7">
-        <f>$K$41/L41</f>
-        <v>6.0394190871369293</v>
-      </c>
-      <c r="P41" s="7">
-        <f t="shared" ref="P41:Q41" si="27">$K$41/M41</f>
-        <v>6.0394190871369293</v>
-      </c>
-      <c r="Q41" s="7">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="L41" s="4">
+        <v>8.1419999999999995</v>
+      </c>
+      <c r="M41" s="4">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="O41" s="4">
+        <f>$K$41^2/L41</f>
+        <v>7.7137834684352743E-2</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" ref="P41:Q41" si="27">$K$41^2/M41</f>
+        <v>8.0966385200464092E-2</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="27"/>
-        <v>10.547101449275361</v>
-      </c>
-      <c r="R41" s="7">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="S41" s="7">
-        <v>-131</v>
+        <v>0.16112269112365316</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1.218</v>
+      </c>
+      <c r="S41" s="4">
+        <v>-65.73</v>
       </c>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>5854</v>
+        <v>5872</v>
       </c>
       <c r="B42" s="4">
-        <v>2321</v>
+        <v>2340</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G42" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>146.9</v>
+      </c>
+      <c r="H42" s="4">
+        <v>159.30000000000001</v>
+      </c>
       <c r="I42" s="4">
-        <v>0.95799999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J42" s="4">
-        <v>0.627</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
-        <v>0.79249999999999998</v>
+        <v>0.73049999999999993</v>
       </c>
       <c r="L42" s="4">
-        <v>8.1419999999999995</v>
+        <v>4.452</v>
       </c>
       <c r="M42" s="4">
-        <v>7.7569999999999997</v>
+        <v>4.452</v>
       </c>
       <c r="N42" s="4">
-        <v>3.8980000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="O42" s="4">
         <f>$K$42^2/L42</f>
-        <v>7.7137834684352743E-2</v>
+        <v>0.11986303908355792</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" ref="P42:Q42" si="28">$K$42^2/M42</f>
-        <v>8.0966385200464092E-2</v>
+        <v>0.11986303908355792</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="28"/>
-        <v>0.16112269112365316</v>
+        <v>0.13578377862595417</v>
       </c>
       <c r="R42" s="4">
-        <v>1.218</v>
+        <v>-2.7919999999999998</v>
       </c>
       <c r="S42" s="4">
-        <v>-65.73</v>
+        <v>-132.80000000000001</v>
       </c>
       <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>5868</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2339</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="4">
+        <v>5950</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2517</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>1.107</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4">
+        <f>K43^2/M43</f>
+        <v>0.11047837901701323</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="S43" s="4">
+        <v>-86.9</v>
+      </c>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>5977</v>
+      </c>
+      <c r="B44" s="6">
+        <v>2612</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="7">
+      <c r="D44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="7">
-        <v>49.4</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7">
-        <v>2.7639999999999998</v>
-      </c>
-      <c r="J43" s="7">
-        <v>2.82</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="0"/>
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7">
-        <f>K43^2/M43</f>
-        <v>39.172180904522605</v>
-      </c>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7">
-        <v>-4.18</v>
-      </c>
-      <c r="S43" s="7">
-        <v>-6.55</v>
-      </c>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>5872</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2340</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="4">
-        <v>146.9</v>
-      </c>
-      <c r="H44" s="4">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="0"/>
-        <v>0.73049999999999993</v>
-      </c>
-      <c r="L44" s="4">
-        <v>4.452</v>
-      </c>
-      <c r="M44" s="4">
-        <v>4.452</v>
-      </c>
-      <c r="N44" s="4">
-        <v>3.93</v>
-      </c>
-      <c r="O44" s="4">
+      <c r="F44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6">
+        <v>0.749</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="6">
+        <f>I44</f>
+        <v>0.749</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="M44" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N44" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O44" s="6">
         <f>$K$44^2/L44</f>
-        <v>0.11986303908355792</v>
-      </c>
-      <c r="P44" s="4">
+        <v>1.1936191489361703</v>
+      </c>
+      <c r="P44" s="6">
         <f t="shared" ref="P44:Q44" si="29">$K$44^2/M44</f>
-        <v>0.11986303908355792</v>
-      </c>
-      <c r="Q44" s="4">
+        <v>6.0978369565217392</v>
+      </c>
+      <c r="Q44" s="6">
         <f t="shared" si="29"/>
-        <v>0.13578377862595417</v>
-      </c>
-      <c r="R44" s="4">
-        <v>-2.7919999999999998</v>
-      </c>
-      <c r="S44" s="4">
-        <v>-132.80000000000001</v>
+        <v>7.1012784810126579</v>
+      </c>
+      <c r="R44" s="6">
+        <v>-3.2240000000000002</v>
+      </c>
+      <c r="S44" s="6">
+        <v>-53</v>
       </c>
       <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>5950</v>
+        <v>6239</v>
       </c>
       <c r="B45" s="4">
-        <v>2517</v>
+        <v>2865</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -3587,332 +4055,5319 @@
         <v>44</v>
       </c>
       <c r="G45" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H45" s="4"/>
+        <v>24.3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>126.3</v>
+      </c>
       <c r="I45" s="4">
-        <v>1.107</v>
+        <v>1.502</v>
       </c>
       <c r="J45" s="4">
-        <v>0.82699999999999996</v>
+        <v>1.093</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="0"/>
-        <v>0.96699999999999997</v>
+        <v>1.2974999999999999</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>8.4640000000000004</v>
+        <v>10.593</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4">
         <f>K45^2/M45</f>
-        <v>0.11047837901701323</v>
+        <v>0.15892629566694985</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4">
-        <v>4.4740000000000002</v>
+        <v>3.5990000000000002</v>
       </c>
       <c r="S45" s="4">
-        <v>-86.9</v>
+        <v>-114.22</v>
       </c>
       <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>5977</v>
+        <v>1087</v>
       </c>
       <c r="B46" s="6">
-        <v>2612</v>
+        <v>1294</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="E46" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H46" s="6"/>
+        <v>21.4</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.7</v>
+      </c>
       <c r="I46" s="6">
-        <v>0.749</v>
+        <v>5.4630000000000001</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K46" s="6">
-        <f>I46</f>
-        <v>0.749</v>
+        <f>(I46+1.41+3.79)/3</f>
+        <v>3.5543333333333336</v>
       </c>
       <c r="L46" s="6">
-        <v>0.47</v>
+        <v>2.5859999999999999</v>
       </c>
       <c r="M46" s="6">
-        <v>9.1999999999999998E-2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="N46" s="6">
-        <v>7.9000000000000001E-2</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="O46" s="6">
-        <f>$K$46^2/L46</f>
-        <v>1.1936191489361703</v>
+        <f>K46^2/L46</f>
+        <v>4.8852611927472731</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" ref="P46:Q46" si="30">$K$46^2/M46</f>
-        <v>6.0978369565217392</v>
+        <f t="shared" ref="P46:Q46" si="30">L46^2/M46</f>
+        <v>16.635313432835819</v>
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="30"/>
-        <v>7.1012784810126579</v>
+        <v>0.46437931034482771</v>
       </c>
       <c r="R46" s="6">
-        <v>-3.2240000000000002</v>
+        <v>-0.97899999999999998</v>
       </c>
       <c r="S46" s="6">
-        <v>-53</v>
+        <v>8.4</v>
       </c>
       <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>6239</v>
+        <v>3126</v>
       </c>
       <c r="B47" s="4">
-        <v>2865</v>
+        <v>1450</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G47" s="4">
-        <v>24.3</v>
+        <v>4.2</v>
       </c>
       <c r="H47" s="4">
-        <v>126.3</v>
+        <v>46.2</v>
       </c>
       <c r="I47" s="4">
-        <v>1.502</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="J47" s="4">
-        <v>1.093</v>
+        <v>0.316</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="0"/>
-        <v>1.2974999999999999</v>
+        <v>0.49850000000000005</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>10.593</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4">
-        <f>K47^2/M47</f>
-        <v>0.15892629566694985</v>
-      </c>
+      <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4">
-        <v>3.5990000000000002</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="S47" s="4">
-        <v>-114.22</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>1087</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1294</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="A48" s="8">
+        <v>9808</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3081</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="6">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="6">
-        <v>21.4</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="I48" s="6">
-        <v>5.4630000000000001</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="6">
-        <f>(I48+1.41+3.79)/3</f>
-        <v>3.5543333333333336</v>
-      </c>
-      <c r="L48" s="6">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="O48" s="6">
-        <f>K48^2/L48</f>
-        <v>4.8852611927472731</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" ref="P48:Q48" si="31">L48^2/M48</f>
-        <v>16.635313432835819</v>
-      </c>
-      <c r="Q48" s="6">
-        <f t="shared" si="31"/>
-        <v>0.46437931034482771</v>
-      </c>
-      <c r="R48" s="6">
-        <v>-0.97899999999999998</v>
-      </c>
-      <c r="S48" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>3126</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1450</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="E48" s="8">
         <v>1</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>46.2</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" si="0"/>
-        <v>0.49850000000000005</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="S49" s="4">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>9808</v>
-      </c>
-      <c r="B50" s="7">
-        <v>3081</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="G48" s="8">
         <v>2.5</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7">
+      <c r="H48" s="8"/>
+      <c r="I48" s="8">
         <v>1.0569999999999999</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J48" s="8">
         <v>0.99</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K48" s="8">
         <f t="shared" si="0"/>
         <v>1.0234999999999999</v>
       </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7">
+      <c r="L48" s="8"/>
+      <c r="M48" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7">
-        <f>K50^2/M50</f>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8">
+        <f>K48^2/M48</f>
         <v>24.941720238095229</v>
       </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7">
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8">
         <v>1.419</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S48" s="8">
         <v>8.69</v>
       </c>
-      <c r="T50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="T49" s="3"/>
+      <c r="W49" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350BFF-CE1C-4D74-A705-16D20B07C79C}">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="16" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1.4695</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.216</v>
+      </c>
+      <c r="G2" s="34">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="37">
+        <f>F2-G2</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J2" s="38">
+        <f>F2-H2</f>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K2" s="39">
+        <f>G2-H2</f>
+        <v>1.5000000000000006E-2</v>
+      </c>
+      <c r="L2" s="37">
+        <v>9.9973622685185202</v>
+      </c>
+      <c r="M2" s="38">
+        <v>31.756327205882354</v>
+      </c>
+      <c r="N2" s="39">
+        <v>40.743966981132083</v>
+      </c>
+      <c r="O2" s="34">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="P2" s="34">
+        <v>-115</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2.048</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1.97</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="F3" s="34">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.308</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I39" si="0">F3-G3</f>
+        <v>1.2570000000000001</v>
+      </c>
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J39" si="1">F3-H3</f>
+        <v>1.284</v>
+      </c>
+      <c r="K3" s="39">
+        <f t="shared" ref="K3:K39" si="2">G3-H3</f>
+        <v>2.7000000000000024E-2</v>
+      </c>
+      <c r="L3" s="37">
+        <v>2.5352267587939692</v>
+      </c>
+      <c r="M3" s="38">
+        <v>12.048002985074625</v>
+      </c>
+      <c r="N3" s="39">
+        <v>13.104159090909089</v>
+      </c>
+      <c r="O3" s="34">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.2787</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999741E-3</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" si="1"/>
+        <v>0.12199999999999997</v>
+      </c>
+      <c r="K4" s="39">
+        <f t="shared" si="2"/>
+        <v>0.1137</v>
+      </c>
+      <c r="L4" s="37">
+        <v>17.125745644599306</v>
+      </c>
+      <c r="M4" s="38">
+        <v>17.635769644779334</v>
+      </c>
+      <c r="N4" s="39">
+        <v>29.78841818181818</v>
+      </c>
+      <c r="O4" s="34">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="P4" s="34">
+        <v>-110.5</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2.198</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="F5" s="34">
+        <v>23.414000000000001</v>
+      </c>
+      <c r="G5" s="34">
+        <v>9.1029999999999998</v>
+      </c>
+      <c r="H5" s="34">
+        <v>6.407</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="0"/>
+        <v>14.311000000000002</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="1"/>
+        <v>17.007000000000001</v>
+      </c>
+      <c r="K5" s="39">
+        <f t="shared" si="2"/>
+        <v>2.6959999999999997</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.17513560263090458</v>
+      </c>
+      <c r="M5" s="38">
+        <v>0.45046962539822039</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0.64002263149680039</v>
+      </c>
+      <c r="O5" s="34">
+        <v>-2.153</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1.647</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1.9395000000000002</v>
+      </c>
+      <c r="F6" s="34">
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.59</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="0"/>
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="1"/>
+        <v>9.1720000000000006</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="2"/>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0.38672357869846824</v>
+      </c>
+      <c r="M6" s="38">
+        <v>6.3756953389830526</v>
+      </c>
+      <c r="N6" s="39">
+        <v>6.7777662162162171</v>
+      </c>
+      <c r="O6" s="34">
+        <v>3.16</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1.38</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34">
+        <v>1.38</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G7" s="34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.16599999999999998</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="L7" s="37">
+        <v>9.1557692307692289</v>
+      </c>
+      <c r="M7" s="38">
+        <v>45.342857142857135</v>
+      </c>
+      <c r="N7" s="39">
+        <v>54.411428571428559</v>
+      </c>
+      <c r="O7" s="34">
+        <v>-5.0309999999999997</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="F8" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="34">
+        <v>4.516</v>
+      </c>
+      <c r="H8" s="34">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J8" s="38">
+        <f t="shared" si="1"/>
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="2"/>
+        <v>2.073</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0.36352654545454538</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.4427360496014171</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0.81841833810888243</v>
+      </c>
+      <c r="O8" s="34">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1.502</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36">
+        <v>1.502</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
+        <v>5.4489999999999998</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="40">
+        <f t="shared" si="0"/>
+        <v>-5.4489999999999998</v>
+      </c>
+      <c r="J9" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="2"/>
+        <v>5.4489999999999998</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41">
+        <v>0.41402165534960544</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="36">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1.45</v>
+      </c>
+      <c r="E10" s="34">
+        <v>1.7770000000000001</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="G10" s="34">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="J10" s="38">
+        <f t="shared" si="1"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>18.574876470588237</v>
+      </c>
+      <c r="M10" s="38">
+        <v>33.592861702127664</v>
+      </c>
+      <c r="N10" s="39">
+        <v>48.580446153846161</v>
+      </c>
+      <c r="O10" s="34">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="P10" s="34">
+        <v>-104.5</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1.633</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1.9095</v>
+      </c>
+      <c r="F11" s="34">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="0"/>
+        <v>1.6830000000000003</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="1"/>
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="K11" s="39">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1.7988111741489885</v>
+      </c>
+      <c r="M11" s="38">
+        <v>10.599390261627908</v>
+      </c>
+      <c r="N11" s="39">
+        <v>12.402007653061226</v>
+      </c>
+      <c r="O11" s="34">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="P11" s="34">
+        <v>-72</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1.744</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1.43</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1.587</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G12" s="34">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="1"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="L12" s="37">
+        <v>2.9015771889400921</v>
+      </c>
+      <c r="M12" s="38">
+        <v>61.428512195121947</v>
+      </c>
+      <c r="N12" s="39">
+        <v>62.964224999999992</v>
+      </c>
+      <c r="O12" s="34">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="P12" s="34">
+        <v>-52.7</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1.413</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="F13" s="34">
+        <v>10.347</v>
+      </c>
+      <c r="G13" s="34">
+        <v>9.0359999999999996</v>
+      </c>
+      <c r="H13" s="34">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="1"/>
+        <v>5.6199999999999992</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="2"/>
+        <v>4.3089999999999993</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0.13801343384555911</v>
+      </c>
+      <c r="M13" s="38">
+        <v>0.15803729526339089</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0.30209964036386716</v>
+      </c>
+      <c r="O13" s="34">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="P13" s="34">
+        <v>-85.5</v>
+      </c>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1.82</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1.9815</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0.19</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="0"/>
+        <v>1.204</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" si="1"/>
+        <v>1.2209999999999999</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="L14" s="37">
+        <v>2.8166013271162127</v>
+      </c>
+      <c r="M14" s="38">
+        <v>20.664959210526316</v>
+      </c>
+      <c r="N14" s="39">
+        <v>22.695619942196537</v>
+      </c>
+      <c r="O14" s="34">
+        <v>1.143</v>
+      </c>
+      <c r="P14" s="34">
+        <v>-133</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.161</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36">
+        <v>0.41900999999999999</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="40">
+        <f t="shared" si="0"/>
+        <v>-0.41900999999999999</v>
+      </c>
+      <c r="J15" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="2"/>
+        <v>0.41900999999999999</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41">
+        <f>E15^2/G15</f>
+        <v>0.44333309467554471</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="36">
+        <v>-4.2709999999999999</v>
+      </c>
+      <c r="P15" s="36">
+        <v>-90.86</v>
+      </c>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1.353</v>
+      </c>
+      <c r="D16" s="46">
+        <v>1.04</v>
+      </c>
+      <c r="E16" s="46">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="H16" s="46">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="48">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="K16" s="49">
+        <f t="shared" si="2"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="L16" s="47">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="M16" s="48">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="N16" s="49">
+        <v>24.264614406779657</v>
+      </c>
+      <c r="O16" s="35">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="P16" s="35">
+        <v>-63.5</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="46">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="D17" s="46">
+        <v>2.54</v>
+      </c>
+      <c r="E17" s="46">
+        <v>2.5365000000000002</v>
+      </c>
+      <c r="F17" s="46">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G17" s="46">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H17" s="46">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000003E-2</v>
+      </c>
+      <c r="K17" s="49">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L17" s="47">
+        <v>96.027347014925382</v>
+      </c>
+      <c r="M17" s="48">
+        <v>98.98203461538462</v>
+      </c>
+      <c r="N17" s="49">
+        <v>134.03817187500002</v>
+      </c>
+      <c r="O17" s="46">
+        <v>-7.6820000000000004</v>
+      </c>
+      <c r="P17" s="46">
+        <v>1.25</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1.62</v>
+      </c>
+      <c r="E18" s="34">
+        <v>1.8065000000000002</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.111</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I18" s="37">
+        <f t="shared" si="0"/>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J18" s="38">
+        <f t="shared" si="1"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K18" s="39">
+        <f t="shared" si="2"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="L18" s="37">
+        <v>3.0585213214620439</v>
+      </c>
+      <c r="M18" s="38">
+        <v>29.400380630630636</v>
+      </c>
+      <c r="N18" s="39">
+        <v>31.994531862745106</v>
+      </c>
+      <c r="O18" s="34">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="P18" s="34">
+        <v>-96.7</v>
+      </c>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1.405</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1.6535</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0.247</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3679999999999999</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="1"/>
+        <v>1.411</v>
+      </c>
+      <c r="K19" s="39">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999983E-2</v>
+      </c>
+      <c r="L19" s="37">
+        <v>1.6490122135102534</v>
+      </c>
+      <c r="M19" s="38">
+        <v>9.4278008620689668</v>
+      </c>
+      <c r="N19" s="39">
+        <v>11.069077935222673</v>
+      </c>
+      <c r="O19" s="34">
+        <v>2.302</v>
+      </c>
+      <c r="P19" s="34">
+        <v>-89</v>
+      </c>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="53">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="D20" s="53">
+        <v>1.81</v>
+      </c>
+      <c r="E20" s="53">
+        <v>2.0010000000000003</v>
+      </c>
+      <c r="F20" s="53">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H20" s="53">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I20" s="54">
+        <f t="shared" si="0"/>
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="J20" s="55">
+        <f t="shared" si="1"/>
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="K20" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="54">
+        <v>0.76324837971788051</v>
+      </c>
+      <c r="M20" s="55">
+        <v>12.434785714285718</v>
+      </c>
+      <c r="N20" s="56">
+        <v>12.434785714285718</v>
+      </c>
+      <c r="O20" s="53">
+        <v>4.109</v>
+      </c>
+      <c r="P20" s="53">
+        <v>-93.66</v>
+      </c>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4.0519999999999996</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1.77</v>
+      </c>
+      <c r="E21" s="34">
+        <v>2.9109999999999996</v>
+      </c>
+      <c r="F21" s="34">
+        <v>10.356</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" si="0"/>
+        <v>9.4909999999999997</v>
+      </c>
+      <c r="J21" s="38">
+        <f t="shared" si="1"/>
+        <v>9.5289999999999999</v>
+      </c>
+      <c r="K21" s="39">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0.28109308613364231</v>
+      </c>
+      <c r="M21" s="38">
+        <v>3.3653179190751441</v>
+      </c>
+      <c r="N21" s="39">
+        <v>3.5199516324062876</v>
+      </c>
+      <c r="O21" s="34">
+        <v>1.766</v>
+      </c>
+      <c r="P21" s="34">
+        <v>-0.43</v>
+      </c>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2.17</v>
+      </c>
+      <c r="E22" s="34">
+        <v>2.516</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.434</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I22" s="37">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999972E-2</v>
+      </c>
+      <c r="J22" s="38">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K22" s="39">
+        <f t="shared" si="2"/>
+        <v>0.19400000000000003</v>
+      </c>
+      <c r="L22" s="37">
+        <v>5.7972350230414751</v>
+      </c>
+      <c r="M22" s="38">
+        <v>6.2431761786600495</v>
+      </c>
+      <c r="N22" s="39">
+        <v>12.038277511961724</v>
+      </c>
+      <c r="O22" s="34">
+        <v>1.736</v>
+      </c>
+      <c r="P22" s="34">
+        <v>-42</v>
+      </c>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2.391</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2.081</v>
+      </c>
+      <c r="E23" s="34">
+        <v>2.2359999999999998</v>
+      </c>
+      <c r="F23" s="34">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.37</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I23" s="37">
+        <f t="shared" si="0"/>
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="1"/>
+        <v>2.665</v>
+      </c>
+      <c r="K23" s="39">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999981E-2</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0.74682698730794905</v>
+      </c>
+      <c r="M23" s="38">
+        <v>6.0432432432432428</v>
+      </c>
+      <c r="N23" s="39">
+        <v>6.796352583586625</v>
+      </c>
+      <c r="O23" s="34">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="P23" s="34">
+        <v>-142</v>
+      </c>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0.53</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.44330999999999998</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.17263999999999999</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.12407</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" si="0"/>
+        <v>0.27066999999999997</v>
+      </c>
+      <c r="J24" s="38">
+        <f t="shared" si="1"/>
+        <v>0.31923999999999997</v>
+      </c>
+      <c r="K24" s="39">
+        <f t="shared" si="2"/>
+        <v>4.8569999999999988E-2</v>
+      </c>
+      <c r="L24" s="37">
+        <f>E24^2/F24</f>
+        <v>2.6604317520470997</v>
+      </c>
+      <c r="M24" s="38">
+        <f>E24^2/G24</f>
+        <v>6.8315338276181636</v>
+      </c>
+      <c r="N24" s="39">
+        <f>E24^2/H24</f>
+        <v>9.5058918352542889</v>
+      </c>
+      <c r="O24" s="34">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="P24" s="34">
+        <v>-145</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="34">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1.81</v>
+      </c>
+      <c r="E25" s="34">
+        <v>1.982</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G25" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H25" s="34">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="J25" s="38">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="K25" s="39">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="L25" s="37">
+        <v>17.086206896551722</v>
+      </c>
+      <c r="M25" s="38">
+        <v>25.410256410256409</v>
+      </c>
+      <c r="N25" s="39">
+        <v>30.96875</v>
+      </c>
+      <c r="O25" s="34">
+        <v>-0.72399999999999998</v>
+      </c>
+      <c r="P25" s="34">
+        <v>-54.1</v>
+      </c>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D26" s="34">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="E26" s="34">
+        <v>2.0455000000000001</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0.105</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="0"/>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="J26" s="38">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="K26" s="39">
+        <f t="shared" si="2"/>
+        <v>3.599999999999999E-2</v>
+      </c>
+      <c r="L26" s="37">
+        <v>4.9289156626506028</v>
+      </c>
+      <c r="M26" s="38">
+        <v>14.507092198581562</v>
+      </c>
+      <c r="N26" s="39">
+        <v>19.480952380952381</v>
+      </c>
+      <c r="O26" s="34">
+        <v>5.4450000000000003</v>
+      </c>
+      <c r="P26" s="34">
+        <v>-100.7</v>
+      </c>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="46">
+        <v>1.92</v>
+      </c>
+      <c r="D27" s="46">
+        <v>1.476</v>
+      </c>
+      <c r="E27" s="46">
+        <v>1.698</v>
+      </c>
+      <c r="F27" s="46">
+        <v>9.4440000000000008</v>
+      </c>
+      <c r="G27" s="46">
+        <v>9.4440000000000008</v>
+      </c>
+      <c r="H27" s="46">
+        <v>6.1959999999999997</v>
+      </c>
+      <c r="I27" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="48">
+        <f t="shared" si="1"/>
+        <v>3.2480000000000011</v>
+      </c>
+      <c r="K27" s="49">
+        <f t="shared" si="2"/>
+        <v>3.2480000000000011</v>
+      </c>
+      <c r="L27" s="47">
+        <v>0.17979669631512069</v>
+      </c>
+      <c r="M27" s="48">
+        <v>0.17979669631512069</v>
+      </c>
+      <c r="N27" s="49">
+        <v>0.27404777275661718</v>
+      </c>
+      <c r="O27" s="46">
+        <v>-2.8149999999999999</v>
+      </c>
+      <c r="P27" s="46">
+        <v>-77.73</v>
+      </c>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="46">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D28" s="46">
+        <v>2.98</v>
+      </c>
+      <c r="E28" s="46">
+        <v>3.0945</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46">
+        <v>1.478</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47">
+        <f t="shared" si="0"/>
+        <v>-1.478</v>
+      </c>
+      <c r="J28" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="49">
+        <f t="shared" si="2"/>
+        <v>1.478</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48">
+        <v>6.4789785182679305</v>
+      </c>
+      <c r="N28" s="49"/>
+      <c r="O28" s="46">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="P28" s="46">
+        <v>-13.29</v>
+      </c>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1.5385</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G29" s="34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H29" s="34">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="0"/>
+        <v>0.38599999999999995</v>
+      </c>
+      <c r="J29" s="38">
+        <f t="shared" si="1"/>
+        <v>0.39699999999999996</v>
+      </c>
+      <c r="K29" s="39">
+        <f t="shared" si="2"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="L29" s="37">
+        <v>5.0254400212314225</v>
+      </c>
+      <c r="M29" s="38">
+        <v>27.846849999999996</v>
+      </c>
+      <c r="N29" s="39">
+        <v>31.986246621621621</v>
+      </c>
+      <c r="O29" s="34">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="P29" s="34">
+        <v>-122</v>
+      </c>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="46">
+        <v>1.363</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0.86</v>
+      </c>
+      <c r="E30" s="46">
+        <v>1.1114999999999999</v>
+      </c>
+      <c r="F30" s="46">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G30" s="46">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="48">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K30" s="49">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L30" s="47">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="M30" s="48">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="N30" s="49">
+        <v>24.708644999999997</v>
+      </c>
+      <c r="O30" s="46">
+        <v>4.008</v>
+      </c>
+      <c r="P30" s="46">
+        <v>-126.6</v>
+      </c>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="46">
+        <v>1.552</v>
+      </c>
+      <c r="D31" s="46">
+        <v>1.359</v>
+      </c>
+      <c r="E31" s="46">
+        <v>1.4555</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I31" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="48">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="K31" s="49">
+        <f t="shared" si="2"/>
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="L31" s="47">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="M31" s="48">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="N31" s="49">
+        <v>10.547101449275361</v>
+      </c>
+      <c r="O31" s="46">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="P31" s="46">
+        <v>-131</v>
+      </c>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="34">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0.627</v>
+      </c>
+      <c r="E32" s="34">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="F32" s="34">
+        <v>8.1419999999999995</v>
+      </c>
+      <c r="G32" s="34">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="H32" s="34">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="0"/>
+        <v>0.38499999999999979</v>
+      </c>
+      <c r="J32" s="38">
+        <f t="shared" si="1"/>
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="K32" s="39">
+        <f t="shared" si="2"/>
+        <v>3.8589999999999995</v>
+      </c>
+      <c r="L32" s="37">
+        <v>7.7137834684352743E-2</v>
+      </c>
+      <c r="M32" s="38">
+        <v>8.0966385200464092E-2</v>
+      </c>
+      <c r="N32" s="39">
+        <v>0.16112269112365316</v>
+      </c>
+      <c r="O32" s="34">
+        <v>1.218</v>
+      </c>
+      <c r="P32" s="34">
+        <v>-65.73</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="36">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.73049999999999993</v>
+      </c>
+      <c r="F33" s="36">
+        <v>4.452</v>
+      </c>
+      <c r="G33" s="36">
+        <v>4.452</v>
+      </c>
+      <c r="H33" s="36">
+        <v>3.93</v>
+      </c>
+      <c r="I33" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="41">
+        <f t="shared" si="1"/>
+        <v>0.5219999999999998</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="2"/>
+        <v>0.5219999999999998</v>
+      </c>
+      <c r="L33" s="40">
+        <v>0.11986303908355792</v>
+      </c>
+      <c r="M33" s="41">
+        <v>0.11986303908355792</v>
+      </c>
+      <c r="N33" s="42">
+        <v>0.13578377862595417</v>
+      </c>
+      <c r="O33" s="36">
+        <v>-2.7919999999999998</v>
+      </c>
+      <c r="P33" s="36">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1.107</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="40">
+        <f t="shared" si="0"/>
+        <v>-8.4640000000000004</v>
+      </c>
+      <c r="J34" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="42">
+        <f t="shared" si="2"/>
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41">
+        <v>0.11047837901701323</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="36">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="P34" s="36">
+        <v>-86.9</v>
+      </c>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0.749</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34">
+        <v>0.749</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="G35" s="34">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H35" s="34">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" si="0"/>
+        <v>0.378</v>
+      </c>
+      <c r="J35" s="38">
+        <f t="shared" si="1"/>
+        <v>0.39099999999999996</v>
+      </c>
+      <c r="K35" s="39">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+      <c r="L35" s="37">
+        <v>1.1936191489361703</v>
+      </c>
+      <c r="M35" s="38">
+        <v>6.0978369565217392</v>
+      </c>
+      <c r="N35" s="39">
+        <v>7.1012784810126579</v>
+      </c>
+      <c r="O35" s="34">
+        <v>-3.2240000000000002</v>
+      </c>
+      <c r="P35" s="34">
+        <v>-53</v>
+      </c>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="36">
+        <v>1.502</v>
+      </c>
+      <c r="D36" s="36">
+        <v>1.093</v>
+      </c>
+      <c r="E36" s="36">
+        <v>1.2974999999999999</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36">
+        <v>10.593</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="40">
+        <f t="shared" si="0"/>
+        <v>-10.593</v>
+      </c>
+      <c r="J36" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="42">
+        <f t="shared" si="2"/>
+        <v>10.593</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41">
+        <v>0.15892629566694985</v>
+      </c>
+      <c r="N36" s="42"/>
+      <c r="O36" s="36">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="P36" s="36">
+        <v>-114.22</v>
+      </c>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="34">
+        <v>5.4630000000000001</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="34">
+        <v>3.5543333333333336</v>
+      </c>
+      <c r="F37" s="34">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="G37" s="34">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H37" s="34">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="0"/>
+        <v>2.1839999999999997</v>
+      </c>
+      <c r="J37" s="38">
+        <f t="shared" si="1"/>
+        <v>2.238</v>
+      </c>
+      <c r="K37" s="39">
+        <f t="shared" si="2"/>
+        <v>5.4000000000000048E-2</v>
+      </c>
+      <c r="L37" s="37">
+        <v>4.8852611927472731</v>
+      </c>
+      <c r="M37" s="38">
+        <v>16.635313432835819</v>
+      </c>
+      <c r="N37" s="39">
+        <v>0.46437931034482771</v>
+      </c>
+      <c r="O37" s="34">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="P37" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="34">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0.316</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.49850000000000005</v>
+      </c>
+      <c r="F38" s="34">
+        <v>8.0012000000000008</v>
+      </c>
+      <c r="G38" s="34">
+        <v>0.43364000000000003</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="I38" s="37">
+        <f t="shared" si="0"/>
+        <v>7.5675600000000003</v>
+      </c>
+      <c r="J38" s="38">
+        <f t="shared" si="1"/>
+        <v>7.5908000000000007</v>
+      </c>
+      <c r="K38" s="39">
+        <f t="shared" si="2"/>
+        <v>2.3240000000000038E-2</v>
+      </c>
+      <c r="L38" s="37">
+        <f>E38^2/F38</f>
+        <v>3.1058122531620262E-2</v>
+      </c>
+      <c r="M38" s="38">
+        <f>E38^2/G38</f>
+        <v>0.57306117978046311</v>
+      </c>
+      <c r="N38" s="39">
+        <f>E38^2/H38</f>
+        <v>0.60551230506822629</v>
+      </c>
+      <c r="O38" s="34">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="P38" s="34">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="46">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="E39" s="46">
+        <v>1.0234999999999999</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="J39" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="52">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="51">
+        <v>24.941720238095229</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="46">
+        <v>1.419</v>
+      </c>
+      <c r="P39" s="46">
+        <v>8.69</v>
+      </c>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF02C0-CEE7-43B5-9856-C29A9CB618E9}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.4695</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9.9973622685185202</v>
+      </c>
+      <c r="J2" s="9">
+        <v>31.756327205882354</v>
+      </c>
+      <c r="K2" s="9">
+        <v>40.743966981132083</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="M2" s="9">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.048</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.97</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.308</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2.5352267587939692</v>
+      </c>
+      <c r="J3" s="10">
+        <v>12.048002985074625</v>
+      </c>
+      <c r="K3" s="10">
+        <v>13.104159090909089</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.2787</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>17.125745644599306</v>
+      </c>
+      <c r="J4" s="9">
+        <v>17.635769644779334</v>
+      </c>
+      <c r="K4" s="9">
+        <v>29.78841818181818</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M4" s="9">
+        <v>-110.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.647</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.9395000000000002</v>
+      </c>
+      <c r="F5" s="10">
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.38672357869846824</v>
+      </c>
+      <c r="J5" s="10">
+        <v>6.3756953389830526</v>
+      </c>
+      <c r="K5" s="10">
+        <v>6.7777662162162171</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9.1557692307692289</v>
+      </c>
+      <c r="J6" s="9">
+        <v>45.342857142857135</v>
+      </c>
+      <c r="K6" s="9">
+        <v>54.411428571428559</v>
+      </c>
+      <c r="L6" s="9">
+        <v>-5.0309999999999997</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.7770000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>18.574876470588237</v>
+      </c>
+      <c r="J7" s="9">
+        <v>33.592861702127664</v>
+      </c>
+      <c r="K7" s="9">
+        <v>48.580446153846161</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-104.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1.633</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1.9095</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="I8" s="33">
+        <v>1.7988111741489885</v>
+      </c>
+      <c r="J8" s="33">
+        <v>10.599390261627908</v>
+      </c>
+      <c r="K8" s="33">
+        <v>12.402007653061226</v>
+      </c>
+      <c r="L8" s="33">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="M8" s="33">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.744</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.587</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2.9015771889400921</v>
+      </c>
+      <c r="J9" s="10">
+        <v>61.428512195121947</v>
+      </c>
+      <c r="K9" s="10">
+        <v>62.964224999999992</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="M9" s="10">
+        <v>-52.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.9815</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2.8166013271162127</v>
+      </c>
+      <c r="J10" s="10">
+        <v>20.664959210526316</v>
+      </c>
+      <c r="K10" s="10">
+        <v>22.695619942196537</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1.143</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.353</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H11" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="J11" s="9">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="K11" s="9">
+        <v>24.264614406779657</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.5365000000000002</v>
+      </c>
+      <c r="F12" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>96.027347014925382</v>
+      </c>
+      <c r="J12" s="9">
+        <v>98.98203461538462</v>
+      </c>
+      <c r="K12" s="9">
+        <v>134.03817187500002</v>
+      </c>
+      <c r="L12" s="9">
+        <v>-7.6820000000000004</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.8065000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.111</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3.0585213214620439</v>
+      </c>
+      <c r="J13" s="10">
+        <v>29.400380630630636</v>
+      </c>
+      <c r="K13" s="10">
+        <v>31.994531862745106</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="M13" s="10">
+        <v>-96.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.405</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.6535</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.247</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.6490122135102534</v>
+      </c>
+      <c r="J14" s="10">
+        <v>9.4278008620689668</v>
+      </c>
+      <c r="K14" s="10">
+        <v>11.069077935222673</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2.302</v>
+      </c>
+      <c r="M14" s="10">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.81</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.0010000000000003</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.76324837971788051</v>
+      </c>
+      <c r="J15" s="10">
+        <v>12.434785714285718</v>
+      </c>
+      <c r="K15" s="10">
+        <v>12.434785714285718</v>
+      </c>
+      <c r="L15" s="10">
+        <v>4.109</v>
+      </c>
+      <c r="M15" s="10">
+        <v>-93.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.516</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.434</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.7972350230414751</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.2431761786600495</v>
+      </c>
+      <c r="K16" s="9">
+        <v>12.038277511961724</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.736</v>
+      </c>
+      <c r="M16" s="9">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.391</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.081</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.2359999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.74682698730794905</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.0432432432432428</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.796352583586625</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="M17" s="10">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.0859999999999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.44330999999999998</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.17263999999999999</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.12407</v>
+      </c>
+      <c r="I18" s="10">
+        <f>E18^2/F18</f>
+        <v>2.6604317520470997</v>
+      </c>
+      <c r="J18" s="10">
+        <f>E18^2/G18</f>
+        <v>6.8315338276181636</v>
+      </c>
+      <c r="K18" s="10">
+        <f>E18^2/H18</f>
+        <v>9.5058918352542889</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="M18" s="10">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.982</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>17.086206896551722</v>
+      </c>
+      <c r="J19" s="9">
+        <v>25.410256410256409</v>
+      </c>
+      <c r="K19" s="9">
+        <v>30.96875</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-0.72399999999999998</v>
+      </c>
+      <c r="M19" s="9">
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D20" s="33">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="E20" s="33">
+        <v>2.0455000000000001</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.105</v>
+      </c>
+      <c r="I20" s="33">
+        <v>4.9289156626506028</v>
+      </c>
+      <c r="J20" s="33">
+        <v>14.507092198581562</v>
+      </c>
+      <c r="K20" s="33">
+        <v>19.480952380952381</v>
+      </c>
+      <c r="L20" s="33">
+        <v>5.4450000000000003</v>
+      </c>
+      <c r="M20" s="33">
+        <v>-100.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2.98</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3.0945</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>1.478</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>6.4789785182679305</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="M21" s="9">
+        <v>-13.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.5385</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G22" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.0254400212314225</v>
+      </c>
+      <c r="J22" s="10">
+        <v>27.846849999999996</v>
+      </c>
+      <c r="K22" s="10">
+        <v>31.986246621621621</v>
+      </c>
+      <c r="L22" s="10">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="M22" s="10">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.363</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.1114999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="9">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="J23" s="9">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="K23" s="9">
+        <v>24.708644999999997</v>
+      </c>
+      <c r="L23" s="9">
+        <v>4.008</v>
+      </c>
+      <c r="M23" s="9">
+        <v>-126.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.552</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.359</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.4555</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I24" s="9">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="J24" s="9">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10.547101449275361</v>
+      </c>
+      <c r="L24" s="9">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.749</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.749</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="G25" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1.1936191489361703</v>
+      </c>
+      <c r="J25" s="10">
+        <v>6.0978369565217392</v>
+      </c>
+      <c r="K25" s="10">
+        <v>7.1012784810126579</v>
+      </c>
+      <c r="L25" s="10">
+        <v>-3.2240000000000002</v>
+      </c>
+      <c r="M25" s="10">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="33">
+        <v>5.4630000000000001</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="33">
+        <v>3.5543333333333336</v>
+      </c>
+      <c r="F26" s="33">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="G26" s="33">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I26" s="33">
+        <v>4.8852611927472731</v>
+      </c>
+      <c r="J26" s="33">
+        <v>16.635313432835819</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0.46437931034482771</v>
+      </c>
+      <c r="L26" s="33">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="M26" s="33">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.0234999999999999</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
+        <v>24.941720238095229</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
+        <v>1.419</v>
+      </c>
+      <c r="M27" s="9">
+        <v>8.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724401C3-F2C4-448C-B02C-0FF603544CDA}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.4695</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9.9973622685185202</v>
+      </c>
+      <c r="J2" s="9">
+        <v>31.756327205882354</v>
+      </c>
+      <c r="K2" s="9">
+        <v>40.743966981132083</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="M2" s="9">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.2787</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I3" s="9">
+        <v>17.125745644599306</v>
+      </c>
+      <c r="J3" s="9">
+        <v>17.635769644779334</v>
+      </c>
+      <c r="K3" s="9">
+        <v>29.78841818181818</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M3" s="9">
+        <v>-110.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.38</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>9.1557692307692289</v>
+      </c>
+      <c r="J4" s="9">
+        <v>45.342857142857135</v>
+      </c>
+      <c r="K4" s="9">
+        <v>54.411428571428559</v>
+      </c>
+      <c r="L4" s="9">
+        <v>-5.0309999999999997</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.7770000000000001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>18.574876470588237</v>
+      </c>
+      <c r="J5" s="9">
+        <v>33.592861702127664</v>
+      </c>
+      <c r="K5" s="9">
+        <v>48.580446153846161</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-104.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.353</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="J6" s="9">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="K6" s="9">
+        <v>24.264614406779657</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.5365000000000002</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>96.027347014925382</v>
+      </c>
+      <c r="J7" s="9">
+        <v>98.98203461538462</v>
+      </c>
+      <c r="K7" s="9">
+        <v>134.03817187500002</v>
+      </c>
+      <c r="L7" s="9">
+        <v>-7.6820000000000004</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.516</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.434</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5.7972350230414751</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6.2431761786600495</v>
+      </c>
+      <c r="K8" s="9">
+        <v>12.038277511961724</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.736</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.982</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>17.086206896551722</v>
+      </c>
+      <c r="J9" s="9">
+        <v>25.410256410256409</v>
+      </c>
+      <c r="K9" s="9">
+        <v>30.96875</v>
+      </c>
+      <c r="L9" s="9">
+        <v>-0.72399999999999998</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.98</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.0945</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>1.478</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
+        <v>6.4789785182679305</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-13.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.363</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.1114999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="9">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="J11" s="9">
+        <v>14.884725903614456</v>
+      </c>
+      <c r="K11" s="9">
+        <v>24.708644999999997</v>
+      </c>
+      <c r="L11" s="9">
+        <v>4.008</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-126.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.552</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.359</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.4555</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="J12" s="9">
+        <v>6.0394190871369293</v>
+      </c>
+      <c r="K12" s="9">
+        <v>10.547101449275361</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.0234999999999999</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <v>24.941720238095229</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
+        <v>1.419</v>
+      </c>
+      <c r="M13" s="9">
+        <v>8.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077FE31C-2A6B-443B-8515-9BEA2083BE77}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1.4695</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.216</v>
+      </c>
+      <c r="G2" s="28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="28">
+        <v>9.9973622685185202</v>
+      </c>
+      <c r="J2" s="28">
+        <v>31.756327205882354</v>
+      </c>
+      <c r="K2" s="28">
+        <v>40.743966981132083</v>
+      </c>
+      <c r="L2" s="28">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="M2" s="29">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H3" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>9.1557692307692289</v>
+      </c>
+      <c r="J3" s="19">
+        <v>45.342857142857135</v>
+      </c>
+      <c r="K3" s="19">
+        <v>54.411428571428559</v>
+      </c>
+      <c r="L3" s="19">
+        <v>-5.0309999999999997</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.353</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="J4" s="12">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="K4" s="12">
+        <v>24.264614406779657</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="M4" s="17">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2.17</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2.516</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.434</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.7972350230414751</v>
+      </c>
+      <c r="J5" s="19">
+        <v>6.2431761786600495</v>
+      </c>
+      <c r="K5" s="19">
+        <v>12.038277511961724</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1.736</v>
+      </c>
+      <c r="M5" s="20">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2.98</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3.0945</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <v>1.478</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>6.4789785182679305</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="M6" s="17">
+        <v>-13.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1.0234999999999999</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31">
+        <v>24.941720238095229</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31">
+        <v>1.419</v>
+      </c>
+      <c r="M7" s="32">
+        <v>8.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1433AC8F-72F6-4212-89AE-331CB36371CB}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1.4695</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.216</v>
+      </c>
+      <c r="G2" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="22">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="22">
+        <v>9.9973622685185202</v>
+      </c>
+      <c r="J2" s="22">
+        <v>31.756327205882354</v>
+      </c>
+      <c r="K2" s="22">
+        <v>40.743966981132083</v>
+      </c>
+      <c r="L2" s="22">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="M2" s="23">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1.353</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1.04</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I3" s="25">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="J3" s="25">
+        <v>13.014656818181816</v>
+      </c>
+      <c r="K3" s="25">
+        <v>24.264614406779657</v>
+      </c>
+      <c r="L3" s="25">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="M3" s="26">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2.98</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.0945</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>1.478</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
+        <v>6.4789785182679305</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="M4" s="20">
+        <v>-13.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.0234999999999999</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25">
+        <v>24.941720238095229</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25">
+        <v>1.419</v>
+      </c>
+      <c r="M5" s="26">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(C7,D7)</f>
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="J7">
+        <f>E7^2/G7</f>
+        <v>0.8802121284755513</v>
+      </c>
+      <c r="L7">
+        <v>-1.889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA58504-15D9-487D-8C2F-3FA9ABCBC7AA}">
+  <dimension ref="C2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.28404000000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.16378000000000001</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H11" si="0">D3^2/E3</f>
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I11" si="1">D3^2/F3</f>
+        <v>1.6183776932826364</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J11" si="2">D3^2/G3</f>
+        <v>2.8067163267798265</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.37773000000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.31669000000000003</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.17766000000000001</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>10.452357504037277</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="1"/>
+        <v>12.46698348542739</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="2"/>
+        <v>22.223173477428798</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4.101</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.4255599999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.37939000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9337394251224458</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="1"/>
+        <v>44.329584332744666</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>51.243756855575867</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.1638599999999999</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.27135999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8743912498066782</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>6.9943218980442454</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0392430719339636</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.13711999999999999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.13217999999999999</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.52837241379310351</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3524212368728126</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>3.4777122106218799</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.10109</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>33.035533519553077</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>84.056297085998594</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>116.99199723019093</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3.44</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68494912790697671</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1249668435013258</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2589557399723375</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.374</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.18068000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>39.550042780748669</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>42.87453913043479</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>81.866924950188178</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.456</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.16284999999999999</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>69.441488372093019</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>71.520574850299397</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>73.343174700644767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2586A6A-07CF-4045-9D06-D79D6C72B985}">
+  <dimension ref="C2:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.37773000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.31669000000000003</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.17766000000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J8" si="0">F3^2/G3</f>
+        <v>10.452357504037277</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K8" si="1">F3^2/H3</f>
+        <v>12.46698348542739</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L8" si="2">F3^2/I3</f>
+        <v>22.223173477428798</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-2.1379999999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.101</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2.4255599999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.37939000000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9337394251224458</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="1"/>
+        <v>44.329584332744666</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="2"/>
+        <v>51.243756855575867</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-2.597</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.1638599999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.27135999999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8743912498066782</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
+        <v>6.9943218980442454</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>8.0392430719339636</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.593</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.10109</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>33.035533519553077</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="1"/>
+        <v>84.056297085998594</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="2"/>
+        <v>116.99199723019093</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-3.0680000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.374</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.18068000000000001</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>39.550042780748669</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="1"/>
+        <v>42.87453913043479</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="2"/>
+        <v>81.866924950188178</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.456</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.16284999999999999</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>69.441488372093019</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="1"/>
+        <v>71.520574850299397</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="2"/>
+        <v>73.343174700644767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073C478-F44A-4946-AB76-EE6A297DB2BA}">
+  <dimension ref="D2:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.37773000000000001</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.31669000000000003</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.17766000000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <f>F3^2/G3</f>
+        <v>10.452357504037277</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3^2/H3</f>
+        <v>12.46698348542739</v>
+      </c>
+      <c r="L3" s="9">
+        <f>F3^2/I3</f>
+        <v>22.223173477428798</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-2.1379999999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.101</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2.4255599999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.37939000000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="J4" s="9">
+        <f>F4^2/G4</f>
+        <v>6.9337394251224458</v>
+      </c>
+      <c r="K4" s="9">
+        <f>F4^2/H4</f>
+        <v>44.329584332744666</v>
+      </c>
+      <c r="L4" s="9">
+        <f>F4^2/I4</f>
+        <v>51.243756855575867</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-2.597</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.1638599999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.27135999999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <f>F5^2/G5</f>
+        <v>1.8743912498066782</v>
+      </c>
+      <c r="K5" s="10">
+        <f>F5^2/H5</f>
+        <v>6.9943218980442454</v>
+      </c>
+      <c r="L5" s="10">
+        <f>F5^2/I5</f>
+        <v>8.0392430719339636</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3.456</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.16284999999999999</v>
+      </c>
+      <c r="J6" s="9">
+        <f>F6^2/G6</f>
+        <v>69.441488372093019</v>
+      </c>
+      <c r="K6" s="9">
+        <f>F6^2/H6</f>
+        <v>71.520574850299397</v>
+      </c>
+      <c r="L6" s="9">
+        <f>F6^2/I6</f>
+        <v>73.343174700644767</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
